--- a/quality_factors copy.xlsx
+++ b/quality_factors copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A08196F-5767-4DB5-B14C-909D100C9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3023571-4E3E-4209-B0E5-3E29A1FD5F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,9 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
